--- a/biology/Médecine/Moniteur_cardiaque_implantable/Moniteur_cardiaque_implantable.xlsx
+++ b/biology/Médecine/Moniteur_cardiaque_implantable/Moniteur_cardiaque_implantable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le moniteur cardiaque implantable (appelé aussi moniteur électrocardiographique implantable[1] ; en anglais, implantable loop recorder ou ILR) est un dispositif médical, de la taille d'un briquet, implanté sous la peau, permettant d'analyser l'électrocardiogramme en temps réel et d'enregistrer automatiquement ou manuellement un certain nombre de tracés qui doivent être validés secondairement par le médecin. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le moniteur cardiaque implantable (appelé aussi moniteur électrocardiographique implantable ; en anglais, implantable loop recorder ou ILR) est un dispositif médical, de la taille d'un briquet, implanté sous la peau, permettant d'analyser l'électrocardiogramme en temps réel et d'enregistrer automatiquement ou manuellement un certain nombre de tracés qui doivent être validés secondairement par le médecin. 
 Il est utilisé dans le diagnostic des syncopes.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stimulateurs cardiaques ont, de longue date, des fonctions diagnostiques mais nécessitent l'implantation d'un boîtier et d'une ou plusieurs sondes. Ils ont été parfois utilisés uniquement dans un but diagnostic[2]. En 1995 a été testé le premier boîtier dédié, sans sonde[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stimulateurs cardiaques ont, de longue date, des fonctions diagnostiques mais nécessitent l'implantation d'un boîtier et d'une ou plusieurs sondes. Ils ont été parfois utilisés uniquement dans un but diagnostic. En 1995 a été testé le premier boîtier dédié, sans sonde.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Implantation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se fait sous anesthésie locale après soins d'asepsie chirurgicale, sous la peau au niveau de la partie médiane gauche du thorax.
 </t>
@@ -574,7 +590,9 @@
           <t>Principe de fonctionnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le boîtier se comporte comme une électrode bipolaire enregistrant le signal électrique sous la forme d'un seul tracé (dérivation). Il comprend : 
 un logiciel d'analyse permettant de discriminer automatiquement certains événements : pause cardiaque, cœur trop lent (bradycardie) ou trop rapide (tachycardie).
@@ -611,9 +629,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est utilisé pour faire le diagnostic de syncopes répétées dont les autres explorations n'ont pu déterminer la cause. En cela, il permet d'effectuer de découvrir un certain nombre d'anomalies du rythme cardiaque pouvant expliquer les malaises[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est utilisé pour faire le diagnostic de syncopes répétées dont les autres explorations n'ont pu déterminer la cause. En cela, il permet d'effectuer de découvrir un certain nombre d'anomalies du rythme cardiaque pouvant expliquer les malaises.
 </t>
         </is>
       </c>
